--- a/arquivos_postos/output/03522014000163.xlsx
+++ b/arquivos_postos/output/03522014000163.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>Afericao</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,6 +495,11 @@
           <t>20,00</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,6 +532,11 @@
           <t>0,00</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -554,6 +569,11 @@
           <t>20,00</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -586,6 +606,11 @@
           <t>80,00</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -618,6 +643,11 @@
           <t>20,00</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -650,6 +680,11 @@
           <t>0,00</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,6 +717,11 @@
           <t>20,00</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -714,6 +754,11 @@
           <t>80,00</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -746,6 +791,11 @@
           <t>0,00</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -778,6 +828,11 @@
           <t>0,00</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -810,6 +865,11 @@
           <t>20,00</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -840,6 +900,11 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>0,00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
         </is>
       </c>
     </row>
@@ -854,7 +919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,6 +953,11 @@
           <t>Recebimento</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +985,11 @@
           <t>0,00</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -942,6 +1017,11 @@
           <t>20,00</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -969,6 +1049,11 @@
           <t>0,00</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -996,6 +1081,11 @@
           <t>81.000,00</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1023,6 +1113,11 @@
           <t>0,00</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1050,6 +1145,11 @@
           <t>36.000,00</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1075,6 +1175,11 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>8.000,00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
         </is>
       </c>
     </row>
